--- a/app/views/consulta/3/documento_xls.xlsx
+++ b/app/views/consulta/3/documento_xls.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
   <si>
     <t>INVENTARIO TOTAL DE LAS COMPRAS DEL MERCADO VIRTUAL: DGRH-GBS-M027 - VENALCASA</t>
   </si>
@@ -143,6 +143,9 @@
     <t>Zamora Vive</t>
   </si>
   <si>
+    <t>ABASTO VENEZUELA MóVIL</t>
+  </si>
+  <si>
     <t xml:space="preserve">Achaguas </t>
   </si>
   <si>
@@ -189,6 +192,15 @@
   </si>
   <si>
     <t>Zona Rental</t>
+  </si>
+  <si>
+    <t>AREPERA VENEZUELA MóVIL</t>
+  </si>
+  <si>
+    <t>CAFETíN</t>
+  </si>
+  <si>
+    <t>CENTRO DE DISTRIBUCIóN Y ABASTO</t>
   </si>
   <si>
     <t>Centro de Abastecimiento Integral Taguanes-Tinaquillo</t>
@@ -846,10 +858,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S128"/>
+  <dimension ref="A1:S129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A128" sqref="A128"/>
+      <selection activeCell="A129" sqref="A129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2336,8 +2348,8 @@
       </c>
     </row>
     <row r="34" spans="1:19">
-      <c r="A34" s="2" t="b">
-        <v>0</v>
+      <c r="A34" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2418,7 +2430,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C36" s="4">
         <v>4</v>
@@ -2475,7 +2487,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C37" s="4">
         <v>16</v>
@@ -2532,7 +2544,7 @@
         <v>3</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C38" s="4">
         <v>2</v>
@@ -2656,7 +2668,7 @@
     </row>
     <row r="41" spans="1:19">
       <c r="A41" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2794,7 +2806,7 @@
         <v>2</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C44" s="4">
         <v>16</v>
@@ -2851,7 +2863,7 @@
         <v>3</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C45" s="4">
         <v>4</v>
@@ -2908,7 +2920,7 @@
         <v>4</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C46" s="4">
         <v>8</v>
@@ -2965,7 +2977,7 @@
         <v>5</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C47" s="4">
         <v>8</v>
@@ -3022,7 +3034,7 @@
         <v>6</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C48" s="4">
         <v>20</v>
@@ -3079,7 +3091,7 @@
         <v>7</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C49" s="4">
         <v>30</v>
@@ -3136,7 +3148,7 @@
         <v>8</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C50" s="4">
         <v>6</v>
@@ -3193,7 +3205,7 @@
         <v>9</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C51" s="4">
         <v>10</v>
@@ -3250,7 +3262,7 @@
         <v>10</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C52" s="4">
         <v>6</v>
@@ -3307,7 +3319,7 @@
         <v>11</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C53" s="4">
         <v>6</v>
@@ -3364,7 +3376,7 @@
         <v>12</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C54" s="4">
         <v>8</v>
@@ -3421,7 +3433,7 @@
         <v>13</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C55" s="4">
         <v>2</v>
@@ -3544,8 +3556,8 @@
       </c>
     </row>
     <row r="58" spans="1:19">
-      <c r="A58" s="2" t="b">
-        <v>0</v>
+      <c r="A58" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -3626,7 +3638,7 @@
         <v>1</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C60" s="4">
         <v>26</v>
@@ -3749,8 +3761,8 @@
       </c>
     </row>
     <row r="63" spans="1:19">
-      <c r="A63" s="2" t="b">
-        <v>0</v>
+      <c r="A63" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -3777,312 +3789,311 @@
       <c r="B64" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I64" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D64" s="3">
-        <v>8</v>
-      </c>
-      <c r="E64" s="3">
-        <v>4</v>
-      </c>
-      <c r="F64" s="3">
+      <c r="J64" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M64" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N64" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O64" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P64" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q64" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R64" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19">
+      <c r="A65" s="2">
+        <v>1</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C65" s="4">
+        <v>10</v>
+      </c>
+      <c r="D65" s="4">
+        <v>8</v>
+      </c>
+      <c r="E65" s="4">
+        <v>4</v>
+      </c>
+      <c r="F65" s="4">
         <v>24</v>
       </c>
-      <c r="G64" s="3">
+      <c r="G65" s="4">
         <v>20</v>
       </c>
-      <c r="H64" s="3">
-        <v>2</v>
-      </c>
-      <c r="I64" s="3">
-        <v>12</v>
-      </c>
-      <c r="J64" s="3">
-        <v>12</v>
-      </c>
-      <c r="K64" s="3">
+      <c r="H65" s="4">
+        <v>2</v>
+      </c>
+      <c r="I65" s="4">
+        <v>12</v>
+      </c>
+      <c r="J65" s="4">
+        <v>12</v>
+      </c>
+      <c r="K65" s="4">
         <v>10</v>
       </c>
-      <c r="L64" s="3">
+      <c r="L65" s="4">
         <v>20</v>
       </c>
-      <c r="M64" s="3">
-        <v>2</v>
-      </c>
-      <c r="N64" s="3">
+      <c r="M65" s="4">
+        <v>2</v>
+      </c>
+      <c r="N65" s="4">
         <v>10</v>
       </c>
-      <c r="O64" s="3">
-        <v>8</v>
-      </c>
-      <c r="P64" s="3">
-        <v>8</v>
-      </c>
-      <c r="Q64" s="3">
+      <c r="O65" s="4">
+        <v>8</v>
+      </c>
+      <c r="P65" s="4">
+        <v>8</v>
+      </c>
+      <c r="Q65" s="4">
         <v>90</v>
       </c>
-      <c r="R64" s="2" t="str">
-        <f>SUM(C64:Q64)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19">
-      <c r="A65" s="5" t="s">
+      <c r="R65" s="4" t="str">
+        <f>SUM(C65:Q65)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19">
+      <c r="A66" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B65" s="1"/>
-      <c r="C65" s="6" t="str">
-        <f>SUM(C65:C64)</f>
-        <v>0</v>
-      </c>
-      <c r="D65" s="6" t="str">
-        <f>SUM(D65:D64)</f>
-        <v>0</v>
-      </c>
-      <c r="E65" s="6" t="str">
-        <f>SUM(E65:E64)</f>
-        <v>0</v>
-      </c>
-      <c r="F65" s="6" t="str">
-        <f>SUM(F65:F64)</f>
-        <v>0</v>
-      </c>
-      <c r="G65" s="6" t="str">
-        <f>SUM(G65:G64)</f>
-        <v>0</v>
-      </c>
-      <c r="H65" s="6" t="str">
-        <f>SUM(H65:H64)</f>
-        <v>0</v>
-      </c>
-      <c r="I65" s="6" t="str">
-        <f>SUM(I65:I64)</f>
-        <v>0</v>
-      </c>
-      <c r="J65" s="6" t="str">
-        <f>SUM(J65:J64)</f>
-        <v>0</v>
-      </c>
-      <c r="K65" s="6" t="str">
-        <f>SUM(K65:K64)</f>
-        <v>0</v>
-      </c>
-      <c r="L65" s="6" t="str">
-        <f>SUM(L65:L64)</f>
-        <v>0</v>
-      </c>
-      <c r="M65" s="6" t="str">
-        <f>SUM(M65:M64)</f>
-        <v>0</v>
-      </c>
-      <c r="N65" s="6" t="str">
-        <f>SUM(N65:N64)</f>
-        <v>0</v>
-      </c>
-      <c r="O65" s="6" t="str">
-        <f>SUM(O65:O64)</f>
-        <v>0</v>
-      </c>
-      <c r="P65" s="6" t="str">
-        <f>SUM(P65:P64)</f>
-        <v>0</v>
-      </c>
-      <c r="Q65" s="6" t="str">
-        <f>SUM(Q65:Q64)</f>
-        <v>0</v>
-      </c>
-      <c r="R65" s="6" t="str">
-        <f>SUM(R65:R64)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19">
-      <c r="A67" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" s="2"/>
-      <c r="Q67" s="2"/>
-      <c r="R67" s="2"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="6" t="str">
+        <f>SUM(C65:C65)</f>
+        <v>0</v>
+      </c>
+      <c r="D66" s="6" t="str">
+        <f>SUM(D65:D65)</f>
+        <v>0</v>
+      </c>
+      <c r="E66" s="6" t="str">
+        <f>SUM(E65:E65)</f>
+        <v>0</v>
+      </c>
+      <c r="F66" s="6" t="str">
+        <f>SUM(F65:F65)</f>
+        <v>0</v>
+      </c>
+      <c r="G66" s="6" t="str">
+        <f>SUM(G65:G65)</f>
+        <v>0</v>
+      </c>
+      <c r="H66" s="6" t="str">
+        <f>SUM(H65:H65)</f>
+        <v>0</v>
+      </c>
+      <c r="I66" s="6" t="str">
+        <f>SUM(I65:I65)</f>
+        <v>0</v>
+      </c>
+      <c r="J66" s="6" t="str">
+        <f>SUM(J65:J65)</f>
+        <v>0</v>
+      </c>
+      <c r="K66" s="6" t="str">
+        <f>SUM(K65:K65)</f>
+        <v>0</v>
+      </c>
+      <c r="L66" s="6" t="str">
+        <f>SUM(L65:L65)</f>
+        <v>0</v>
+      </c>
+      <c r="M66" s="6" t="str">
+        <f>SUM(M65:M65)</f>
+        <v>0</v>
+      </c>
+      <c r="N66" s="6" t="str">
+        <f>SUM(N65:N65)</f>
+        <v>0</v>
+      </c>
+      <c r="O66" s="6" t="str">
+        <f>SUM(O65:O65)</f>
+        <v>0</v>
+      </c>
+      <c r="P66" s="6" t="str">
+        <f>SUM(P65:P65)</f>
+        <v>0</v>
+      </c>
+      <c r="Q66" s="6" t="str">
+        <f>SUM(Q65:Q65)</f>
+        <v>0</v>
+      </c>
+      <c r="R66" s="6" t="str">
+        <f>SUM(R65:R65)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:19">
       <c r="A68" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B68" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+    </row>
+    <row r="69" spans="1:19">
+      <c r="A69" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D68" s="3" t="s">
+      <c r="C69" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E68" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F68" s="3" t="s">
+      <c r="E69" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F69" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G68" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H68" s="3" t="s">
+      <c r="G69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H69" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I68" s="3" t="s">
+      <c r="I69" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J68" s="3" t="s">
+      <c r="J69" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K68" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L68" s="3" t="s">
+      <c r="K69" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L69" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M68" s="3" t="s">
+      <c r="M69" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N68" s="3" t="s">
+      <c r="N69" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O68" s="3" t="s">
+      <c r="O69" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P68" s="3" t="s">
+      <c r="P69" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q68" s="3" t="s">
+      <c r="Q69" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="R68" s="2" t="s">
+      <c r="R69" s="2" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19">
-      <c r="A69" s="2">
-        <v>1</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C69" s="4">
-        <v>67</v>
-      </c>
-      <c r="D69" s="4">
-        <v>66</v>
-      </c>
-      <c r="E69" s="4">
-        <v>23</v>
-      </c>
-      <c r="F69" s="4">
-        <v>214</v>
-      </c>
-      <c r="G69" s="4">
-        <v>152</v>
-      </c>
-      <c r="H69" s="4">
-        <v>59</v>
-      </c>
-      <c r="I69" s="4">
-        <v>140</v>
-      </c>
-      <c r="J69" s="4">
-        <v>104</v>
-      </c>
-      <c r="K69" s="4">
-        <v>63</v>
-      </c>
-      <c r="L69" s="4">
-        <v>152</v>
-      </c>
-      <c r="M69" s="4">
-        <v>38</v>
-      </c>
-      <c r="N69" s="4">
-        <v>67</v>
-      </c>
-      <c r="O69" s="4">
-        <v>60</v>
-      </c>
-      <c r="P69" s="4">
-        <v>66</v>
-      </c>
-      <c r="Q69" s="4">
-        <v>684</v>
-      </c>
-      <c r="R69" s="4" t="str">
-        <f>SUM(C69:Q69)</f>
-        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:19">
       <c r="A70" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B70" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C70" s="4">
+        <v>67</v>
+      </c>
+      <c r="D70" s="4">
+        <v>66</v>
+      </c>
+      <c r="E70" s="4">
+        <v>23</v>
+      </c>
+      <c r="F70" s="4">
+        <v>214</v>
+      </c>
+      <c r="G70" s="4">
+        <v>152</v>
+      </c>
+      <c r="H70" s="4">
         <v>59</v>
       </c>
-      <c r="C70" s="4">
-        <v>2</v>
-      </c>
-      <c r="D70" s="4">
-        <v>2</v>
-      </c>
-      <c r="E70" s="4">
-        <v>0</v>
-      </c>
-      <c r="F70" s="4">
-        <v>6</v>
-      </c>
-      <c r="G70" s="4">
-        <v>4</v>
-      </c>
-      <c r="H70" s="4">
-        <v>0</v>
-      </c>
       <c r="I70" s="4">
-        <v>4</v>
+        <v>140</v>
       </c>
       <c r="J70" s="4">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="K70" s="4">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="L70" s="4">
-        <v>4</v>
+        <v>152</v>
       </c>
       <c r="M70" s="4">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="N70" s="4">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="O70" s="4">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="P70" s="4">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="Q70" s="4">
-        <v>18</v>
+        <v>684</v>
       </c>
       <c r="R70" s="4" t="str">
         <f>SUM(C70:Q70)</f>
@@ -4091,31 +4102,31 @@
     </row>
     <row r="71" spans="1:19">
       <c r="A71" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C71" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E71" s="4">
         <v>0</v>
       </c>
       <c r="F71" s="4">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G71" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H71" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I71" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J71" s="4">
         <v>4</v>
@@ -4124,7 +4135,7 @@
         <v>2</v>
       </c>
       <c r="L71" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M71" s="4">
         <v>0</v>
@@ -4133,13 +4144,13 @@
         <v>2</v>
       </c>
       <c r="O71" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P71" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q71" s="4">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="R71" s="4" t="str">
         <f>SUM(C71:Q71)</f>
@@ -4148,31 +4159,31 @@
     </row>
     <row r="72" spans="1:19">
       <c r="A72" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C72" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E72" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F72" s="4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G72" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H72" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I72" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J72" s="4">
         <v>4</v>
@@ -4181,22 +4192,22 @@
         <v>2</v>
       </c>
       <c r="L72" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M72" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N72" s="4">
         <v>2</v>
       </c>
       <c r="O72" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P72" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q72" s="4">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="R72" s="4" t="str">
         <f>SUM(C72:Q72)</f>
@@ -4205,55 +4216,55 @@
     </row>
     <row r="73" spans="1:19">
       <c r="A73" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C73" s="4">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D73" s="4">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E73" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F73" s="4">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="G73" s="4">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="H73" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" s="4">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="J73" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K73" s="4">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="L73" s="4">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="M73" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N73" s="4">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="O73" s="4">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="P73" s="4">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="Q73" s="4">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="R73" s="4" t="str">
         <f>SUM(C73:Q73)</f>
@@ -4262,55 +4273,55 @@
     </row>
     <row r="74" spans="1:19">
       <c r="A74" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C74" s="4">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D74" s="4">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E74" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F74" s="4">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="G74" s="4">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="H74" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" s="4">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="J74" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K74" s="4">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L74" s="4">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="M74" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N74" s="4">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="O74" s="4">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="P74" s="4">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="Q74" s="4">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="R74" s="4" t="str">
         <f>SUM(C74:Q74)</f>
@@ -4318,252 +4329,252 @@
       </c>
     </row>
     <row r="75" spans="1:19">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="2">
+        <v>6</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C75" s="4">
+        <v>2</v>
+      </c>
+      <c r="D75" s="4">
+        <v>2</v>
+      </c>
+      <c r="E75" s="4">
+        <v>2</v>
+      </c>
+      <c r="F75" s="4">
+        <v>6</v>
+      </c>
+      <c r="G75" s="4">
+        <v>4</v>
+      </c>
+      <c r="H75" s="4">
+        <v>2</v>
+      </c>
+      <c r="I75" s="4">
+        <v>4</v>
+      </c>
+      <c r="J75" s="4">
+        <v>4</v>
+      </c>
+      <c r="K75" s="4">
+        <v>2</v>
+      </c>
+      <c r="L75" s="4">
+        <v>4</v>
+      </c>
+      <c r="M75" s="4">
+        <v>2</v>
+      </c>
+      <c r="N75" s="4">
+        <v>2</v>
+      </c>
+      <c r="O75" s="4">
+        <v>2</v>
+      </c>
+      <c r="P75" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q75" s="4">
+        <v>18</v>
+      </c>
+      <c r="R75" s="4" t="str">
+        <f>SUM(C75:Q75)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19">
+      <c r="A76" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B75" s="1"/>
-      <c r="C75" s="6" t="str">
-        <f>SUM(C69:C74)</f>
-        <v>0</v>
-      </c>
-      <c r="D75" s="6" t="str">
-        <f>SUM(D69:D74)</f>
-        <v>0</v>
-      </c>
-      <c r="E75" s="6" t="str">
-        <f>SUM(E69:E74)</f>
-        <v>0</v>
-      </c>
-      <c r="F75" s="6" t="str">
-        <f>SUM(F69:F74)</f>
-        <v>0</v>
-      </c>
-      <c r="G75" s="6" t="str">
-        <f>SUM(G69:G74)</f>
-        <v>0</v>
-      </c>
-      <c r="H75" s="6" t="str">
-        <f>SUM(H69:H74)</f>
-        <v>0</v>
-      </c>
-      <c r="I75" s="6" t="str">
-        <f>SUM(I69:I74)</f>
-        <v>0</v>
-      </c>
-      <c r="J75" s="6" t="str">
-        <f>SUM(J69:J74)</f>
-        <v>0</v>
-      </c>
-      <c r="K75" s="6" t="str">
-        <f>SUM(K69:K74)</f>
-        <v>0</v>
-      </c>
-      <c r="L75" s="6" t="str">
-        <f>SUM(L69:L74)</f>
-        <v>0</v>
-      </c>
-      <c r="M75" s="6" t="str">
-        <f>SUM(M69:M74)</f>
-        <v>0</v>
-      </c>
-      <c r="N75" s="6" t="str">
-        <f>SUM(N69:N74)</f>
-        <v>0</v>
-      </c>
-      <c r="O75" s="6" t="str">
-        <f>SUM(O69:O74)</f>
-        <v>0</v>
-      </c>
-      <c r="P75" s="6" t="str">
-        <f>SUM(P69:P74)</f>
-        <v>0</v>
-      </c>
-      <c r="Q75" s="6" t="str">
-        <f>SUM(Q69:Q74)</f>
-        <v>0</v>
-      </c>
-      <c r="R75" s="6" t="str">
-        <f>SUM(R69:R74)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19">
-      <c r="A77" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
-      <c r="P77" s="2"/>
-      <c r="Q77" s="2"/>
-      <c r="R77" s="2"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="6" t="str">
+        <f>SUM(C70:C75)</f>
+        <v>0</v>
+      </c>
+      <c r="D76" s="6" t="str">
+        <f>SUM(D70:D75)</f>
+        <v>0</v>
+      </c>
+      <c r="E76" s="6" t="str">
+        <f>SUM(E70:E75)</f>
+        <v>0</v>
+      </c>
+      <c r="F76" s="6" t="str">
+        <f>SUM(F70:F75)</f>
+        <v>0</v>
+      </c>
+      <c r="G76" s="6" t="str">
+        <f>SUM(G70:G75)</f>
+        <v>0</v>
+      </c>
+      <c r="H76" s="6" t="str">
+        <f>SUM(H70:H75)</f>
+        <v>0</v>
+      </c>
+      <c r="I76" s="6" t="str">
+        <f>SUM(I70:I75)</f>
+        <v>0</v>
+      </c>
+      <c r="J76" s="6" t="str">
+        <f>SUM(J70:J75)</f>
+        <v>0</v>
+      </c>
+      <c r="K76" s="6" t="str">
+        <f>SUM(K70:K75)</f>
+        <v>0</v>
+      </c>
+      <c r="L76" s="6" t="str">
+        <f>SUM(L70:L75)</f>
+        <v>0</v>
+      </c>
+      <c r="M76" s="6" t="str">
+        <f>SUM(M70:M75)</f>
+        <v>0</v>
+      </c>
+      <c r="N76" s="6" t="str">
+        <f>SUM(N70:N75)</f>
+        <v>0</v>
+      </c>
+      <c r="O76" s="6" t="str">
+        <f>SUM(O70:O75)</f>
+        <v>0</v>
+      </c>
+      <c r="P76" s="6" t="str">
+        <f>SUM(P70:P75)</f>
+        <v>0</v>
+      </c>
+      <c r="Q76" s="6" t="str">
+        <f>SUM(Q70:Q75)</f>
+        <v>0</v>
+      </c>
+      <c r="R76" s="6" t="str">
+        <f>SUM(R70:R75)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="1:19">
       <c r="A78" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B78" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+    </row>
+    <row r="79" spans="1:19">
+      <c r="A79" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D78" s="3" t="s">
+      <c r="C79" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E78" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F78" s="3" t="s">
+      <c r="E79" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F79" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G78" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H78" s="3" t="s">
+      <c r="G79" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H79" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I78" s="3" t="s">
+      <c r="I79" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J78" s="3" t="s">
+      <c r="J79" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K78" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L78" s="3" t="s">
+      <c r="K79" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L79" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M78" s="3" t="s">
+      <c r="M79" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N78" s="3" t="s">
+      <c r="N79" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O78" s="3" t="s">
+      <c r="O79" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P78" s="3" t="s">
+      <c r="P79" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q78" s="3" t="s">
+      <c r="Q79" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="R78" s="2" t="s">
+      <c r="R79" s="2" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19">
-      <c r="A79" s="2">
-        <v>1</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C79" s="4">
-        <v>66</v>
-      </c>
-      <c r="D79" s="4">
-        <v>66</v>
-      </c>
-      <c r="E79" s="4">
-        <v>17</v>
-      </c>
-      <c r="F79" s="4">
-        <v>204</v>
-      </c>
-      <c r="G79" s="4">
-        <v>132</v>
-      </c>
-      <c r="H79" s="4">
-        <v>27</v>
-      </c>
-      <c r="I79" s="4">
-        <v>136</v>
-      </c>
-      <c r="J79" s="4">
-        <v>112</v>
-      </c>
-      <c r="K79" s="4">
-        <v>63</v>
-      </c>
-      <c r="L79" s="4">
-        <v>136</v>
-      </c>
-      <c r="M79" s="4">
-        <v>10</v>
-      </c>
-      <c r="N79" s="4">
-        <v>66</v>
-      </c>
-      <c r="O79" s="4">
-        <v>6</v>
-      </c>
-      <c r="P79" s="4">
-        <v>6</v>
-      </c>
-      <c r="Q79" s="4">
-        <v>612</v>
-      </c>
-      <c r="R79" s="4" t="str">
-        <f>SUM(C79:Q79)</f>
-        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:19">
       <c r="A80" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B80" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C80" s="4">
         <v>66</v>
       </c>
-      <c r="C80" s="4">
-        <v>24</v>
-      </c>
       <c r="D80" s="4">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="E80" s="4">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F80" s="4">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="G80" s="4">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="H80" s="4">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I80" s="4">
-        <v>56</v>
+        <v>136</v>
       </c>
       <c r="J80" s="4">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="K80" s="4">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="L80" s="4">
-        <v>56</v>
+        <v>136</v>
       </c>
       <c r="M80" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N80" s="4">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="O80" s="4">
         <v>6</v>
@@ -4572,7 +4583,7 @@
         <v>6</v>
       </c>
       <c r="Q80" s="4">
-        <v>252</v>
+        <v>612</v>
       </c>
       <c r="R80" s="4" t="str">
         <f>SUM(C80:Q80)</f>
@@ -4581,55 +4592,55 @@
     </row>
     <row r="81" spans="1:19">
       <c r="A81" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C81" s="4">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D81" s="4">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="E81" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F81" s="4">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="G81" s="4">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="H81" s="4">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I81" s="4">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="J81" s="4">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="K81" s="4">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="L81" s="4">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="M81" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N81" s="4">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="O81" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P81" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q81" s="4">
-        <v>36</v>
+        <v>252</v>
       </c>
       <c r="R81" s="4" t="str">
         <f>SUM(C81:Q81)</f>
@@ -4638,55 +4649,55 @@
     </row>
     <row r="82" spans="1:19">
       <c r="A82" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C82" s="4">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="D82" s="4">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="E82" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F82" s="4">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="G82" s="4">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="H82" s="4">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="I82" s="4">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="J82" s="4">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="K82" s="4">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="L82" s="4">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="M82" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N82" s="4">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="O82" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P82" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q82" s="4">
-        <v>342</v>
+        <v>36</v>
       </c>
       <c r="R82" s="4" t="str">
         <f>SUM(C82:Q82)</f>
@@ -4695,55 +4706,55 @@
     </row>
     <row r="83" spans="1:19">
       <c r="A83" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C83" s="4">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D83" s="4">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="E83" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F83" s="4">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="G83" s="4">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="H83" s="4">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="I83" s="4">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="J83" s="4">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="K83" s="4">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="L83" s="4">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="M83" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N83" s="4">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="O83" s="4">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="P83" s="4">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Q83" s="4">
-        <v>144</v>
+        <v>342</v>
       </c>
       <c r="R83" s="4" t="str">
         <f>SUM(C83:Q83)</f>
@@ -4752,55 +4763,55 @@
     </row>
     <row r="84" spans="1:19">
       <c r="A84" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C84" s="4">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D84" s="4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E84" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F84" s="4">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="G84" s="4">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="H84" s="4">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I84" s="4">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="J84" s="4">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="K84" s="4">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="L84" s="4">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="M84" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N84" s="4">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="O84" s="4">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="P84" s="4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Q84" s="4">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="R84" s="4" t="str">
         <f>SUM(C84:Q84)</f>
@@ -4809,55 +4820,55 @@
     </row>
     <row r="85" spans="1:19">
       <c r="A85" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C85" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D85" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E85" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F85" s="4">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G85" s="4">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H85" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I85" s="4">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J85" s="4">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K85" s="4">
         <v>6</v>
       </c>
       <c r="L85" s="4">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M85" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N85" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O85" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P85" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q85" s="4">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="R85" s="4" t="str">
         <f>SUM(C85:Q85)</f>
@@ -4866,55 +4877,55 @@
     </row>
     <row r="86" spans="1:19">
       <c r="A86" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B86" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C86" s="4">
+        <v>8</v>
+      </c>
+      <c r="D86" s="4">
+        <v>2</v>
+      </c>
+      <c r="E86" s="4">
+        <v>0</v>
+      </c>
+      <c r="F86" s="4">
+        <v>24</v>
+      </c>
+      <c r="G86" s="4">
+        <v>0</v>
+      </c>
+      <c r="H86" s="4">
+        <v>8</v>
+      </c>
+      <c r="I86" s="4">
+        <v>16</v>
+      </c>
+      <c r="J86" s="4">
+        <v>0</v>
+      </c>
+      <c r="K86" s="4">
+        <v>6</v>
+      </c>
+      <c r="L86" s="4">
+        <v>16</v>
+      </c>
+      <c r="M86" s="4">
+        <v>0</v>
+      </c>
+      <c r="N86" s="4">
+        <v>2</v>
+      </c>
+      <c r="O86" s="4">
+        <v>0</v>
+      </c>
+      <c r="P86" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="4">
         <v>72</v>
-      </c>
-      <c r="C86" s="4">
-        <v>76</v>
-      </c>
-      <c r="D86" s="4">
-        <v>68</v>
-      </c>
-      <c r="E86" s="4">
-        <v>22</v>
-      </c>
-      <c r="F86" s="4">
-        <v>234</v>
-      </c>
-      <c r="G86" s="4">
-        <v>158</v>
-      </c>
-      <c r="H86" s="4">
-        <v>32</v>
-      </c>
-      <c r="I86" s="4">
-        <v>160</v>
-      </c>
-      <c r="J86" s="4">
-        <v>136</v>
-      </c>
-      <c r="K86" s="4">
-        <v>58</v>
-      </c>
-      <c r="L86" s="4">
-        <v>160</v>
-      </c>
-      <c r="M86" s="4">
-        <v>22</v>
-      </c>
-      <c r="N86" s="4">
-        <v>70</v>
-      </c>
-      <c r="O86" s="4">
-        <v>48</v>
-      </c>
-      <c r="P86" s="4">
-        <v>46</v>
-      </c>
-      <c r="Q86" s="4">
-        <v>738</v>
       </c>
       <c r="R86" s="4" t="str">
         <f>SUM(C86:Q86)</f>
@@ -4923,55 +4934,55 @@
     </row>
     <row r="87" spans="1:19">
       <c r="A87" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C87" s="4">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="D87" s="4">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="E87" s="4">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F87" s="4">
-        <v>84</v>
+        <v>234</v>
       </c>
       <c r="G87" s="4">
-        <v>56</v>
+        <v>158</v>
       </c>
       <c r="H87" s="4">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I87" s="4">
-        <v>56</v>
+        <v>160</v>
       </c>
       <c r="J87" s="4">
-        <v>56</v>
+        <v>136</v>
       </c>
       <c r="K87" s="4">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="L87" s="4">
-        <v>56</v>
+        <v>160</v>
       </c>
       <c r="M87" s="4">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N87" s="4">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="O87" s="4">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="P87" s="4">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="Q87" s="4">
-        <v>252</v>
+        <v>738</v>
       </c>
       <c r="R87" s="4" t="str">
         <f>SUM(C87:Q87)</f>
@@ -4980,55 +4991,55 @@
     </row>
     <row r="88" spans="1:19">
       <c r="A88" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C88" s="4">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="D88" s="4">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="E88" s="4">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F88" s="4">
-        <v>220</v>
+        <v>84</v>
       </c>
       <c r="G88" s="4">
-        <v>148</v>
+        <v>56</v>
       </c>
       <c r="H88" s="4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I88" s="4">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="J88" s="4">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="K88" s="4">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="L88" s="4">
-        <v>151</v>
+        <v>56</v>
       </c>
       <c r="M88" s="4">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="N88" s="4">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="O88" s="4">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="P88" s="4">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="Q88" s="4">
-        <v>684</v>
+        <v>252</v>
       </c>
       <c r="R88" s="4" t="str">
         <f>SUM(C88:Q88)</f>
@@ -5037,55 +5048,55 @@
     </row>
     <row r="89" spans="1:19">
       <c r="A89" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C89" s="4">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="D89" s="4">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="E89" s="4">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F89" s="4">
-        <v>360</v>
+        <v>220</v>
       </c>
       <c r="G89" s="4">
-        <v>248</v>
+        <v>148</v>
       </c>
       <c r="H89" s="4">
-        <v>126</v>
+        <v>24</v>
       </c>
       <c r="I89" s="4">
-        <v>256</v>
+        <v>140</v>
       </c>
       <c r="J89" s="4">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K89" s="4">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="L89" s="4">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="M89" s="4">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="N89" s="4">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="O89" s="4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P89" s="4">
         <v>12</v>
       </c>
       <c r="Q89" s="4">
-        <v>1152</v>
+        <v>684</v>
       </c>
       <c r="R89" s="4" t="str">
         <f>SUM(C89:Q89)</f>
@@ -5094,55 +5105,55 @@
     </row>
     <row r="90" spans="1:19">
       <c r="A90" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C90" s="4">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="D90" s="4">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="E90" s="4">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="F90" s="4">
-        <v>275</v>
+        <v>360</v>
       </c>
       <c r="G90" s="4">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="H90" s="4">
+        <v>126</v>
+      </c>
+      <c r="I90" s="4">
+        <v>256</v>
+      </c>
+      <c r="J90" s="4">
+        <v>82</v>
+      </c>
+      <c r="K90" s="4">
+        <v>124</v>
+      </c>
+      <c r="L90" s="4">
+        <v>250</v>
+      </c>
+      <c r="M90" s="4">
         <v>57</v>
       </c>
-      <c r="I90" s="4">
-        <v>184</v>
-      </c>
-      <c r="J90" s="4">
-        <v>8</v>
-      </c>
-      <c r="K90" s="4">
-        <v>90</v>
-      </c>
-      <c r="L90" s="4">
-        <v>192</v>
-      </c>
-      <c r="M90" s="4">
-        <v>44</v>
-      </c>
       <c r="N90" s="4">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="O90" s="4">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="P90" s="4">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="Q90" s="4">
-        <v>864</v>
+        <v>1152</v>
       </c>
       <c r="R90" s="4" t="str">
         <f>SUM(C90:Q90)</f>
@@ -5151,55 +5162,55 @@
     </row>
     <row r="91" spans="1:19">
       <c r="A91" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C91" s="4">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D91" s="4">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="E91" s="4">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F91" s="4">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="G91" s="4">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H91" s="4">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I91" s="4">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="J91" s="4">
-        <v>110</v>
+        <v>8</v>
       </c>
       <c r="K91" s="4">
         <v>90</v>
       </c>
       <c r="L91" s="4">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="M91" s="4">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N91" s="4">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="O91" s="4">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="P91" s="4">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="Q91" s="4">
-        <v>810</v>
+        <v>864</v>
       </c>
       <c r="R91" s="4" t="str">
         <f>SUM(C91:Q91)</f>
@@ -5208,55 +5219,55 @@
     </row>
     <row r="92" spans="1:19">
       <c r="A92" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C92" s="4">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="D92" s="4">
-        <v>128</v>
+        <v>70</v>
       </c>
       <c r="E92" s="4">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="F92" s="4">
-        <v>377</v>
+        <v>270</v>
       </c>
       <c r="G92" s="4">
-        <v>284</v>
+        <v>180</v>
       </c>
       <c r="H92" s="4">
-        <v>138</v>
+        <v>54</v>
       </c>
       <c r="I92" s="4">
-        <v>272</v>
+        <v>176</v>
       </c>
       <c r="J92" s="4">
-        <v>268</v>
+        <v>110</v>
       </c>
       <c r="K92" s="4">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="L92" s="4">
-        <v>284</v>
+        <v>178</v>
       </c>
       <c r="M92" s="4">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="N92" s="4">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="O92" s="4">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="P92" s="4">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="Q92" s="4">
-        <v>1260</v>
+        <v>810</v>
       </c>
       <c r="R92" s="4" t="str">
         <f>SUM(C92:Q92)</f>
@@ -5265,55 +5276,55 @@
     </row>
     <row r="93" spans="1:19">
       <c r="A93" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C93" s="4">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="D93" s="4">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="E93" s="4">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="F93" s="4">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="G93" s="4">
-        <v>240</v>
+        <v>284</v>
       </c>
       <c r="H93" s="4">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="I93" s="4">
-        <v>228</v>
+        <v>272</v>
       </c>
       <c r="J93" s="4">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="K93" s="4">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="L93" s="4">
-        <v>240</v>
+        <v>284</v>
       </c>
       <c r="M93" s="4">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="N93" s="4">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="O93" s="4">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="P93" s="4">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="Q93" s="4">
-        <v>1080</v>
+        <v>1260</v>
       </c>
       <c r="R93" s="4" t="str">
         <f>SUM(C93:Q93)</f>
@@ -5322,55 +5333,55 @@
     </row>
     <row r="94" spans="1:19">
       <c r="A94" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C94" s="4">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c r="D94" s="4">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="E94" s="4">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="F94" s="4">
-        <v>156</v>
+        <v>360</v>
       </c>
       <c r="G94" s="4">
-        <v>72</v>
+        <v>240</v>
       </c>
       <c r="H94" s="4">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="I94" s="4">
-        <v>104</v>
+        <v>228</v>
       </c>
       <c r="J94" s="4">
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="K94" s="4">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="L94" s="4">
-        <v>104</v>
+        <v>240</v>
       </c>
       <c r="M94" s="4">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="N94" s="4">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="O94" s="4">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="P94" s="4">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="Q94" s="4">
-        <v>450</v>
+        <v>1080</v>
       </c>
       <c r="R94" s="4" t="str">
         <f>SUM(C94:Q94)</f>
@@ -5379,28 +5390,28 @@
     </row>
     <row r="95" spans="1:19">
       <c r="A95" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C95" s="4">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="D95" s="4">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="E95" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F95" s="4">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="G95" s="4">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="H95" s="4">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="I95" s="4">
         <v>104</v>
@@ -5409,25 +5420,25 @@
         <v>0</v>
       </c>
       <c r="K95" s="4">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="L95" s="4">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="M95" s="4">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N95" s="4">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="O95" s="4">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="P95" s="4">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="Q95" s="4">
-        <v>684</v>
+        <v>450</v>
       </c>
       <c r="R95" s="4" t="str">
         <f>SUM(C95:Q95)</f>
@@ -5436,55 +5447,55 @@
     </row>
     <row r="96" spans="1:19">
       <c r="A96" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C96" s="4">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="D96" s="4">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="E96" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F96" s="4">
-        <v>96</v>
+        <v>208</v>
       </c>
       <c r="G96" s="4">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="H96" s="4">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="I96" s="4">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="J96" s="4">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="K96" s="4">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="L96" s="4">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="M96" s="4">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="N96" s="4">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="O96" s="4">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="P96" s="4">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="Q96" s="4">
-        <v>270</v>
+        <v>684</v>
       </c>
       <c r="R96" s="4" t="str">
         <f>SUM(C96:Q96)</f>
@@ -5493,55 +5504,55 @@
     </row>
     <row r="97" spans="1:19">
       <c r="A97" s="2">
+        <v>18</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C97" s="4">
+        <v>32</v>
+      </c>
+      <c r="D97" s="4">
+        <v>32</v>
+      </c>
+      <c r="E97" s="4">
+        <v>10</v>
+      </c>
+      <c r="F97" s="4">
+        <v>96</v>
+      </c>
+      <c r="G97" s="4">
+        <v>64</v>
+      </c>
+      <c r="H97" s="4">
+        <v>22</v>
+      </c>
+      <c r="I97" s="4">
+        <v>64</v>
+      </c>
+      <c r="J97" s="4">
+        <v>38</v>
+      </c>
+      <c r="K97" s="4">
+        <v>32</v>
+      </c>
+      <c r="L97" s="4">
+        <v>64</v>
+      </c>
+      <c r="M97" s="4">
+        <v>16</v>
+      </c>
+      <c r="N97" s="4">
+        <v>30</v>
+      </c>
+      <c r="O97" s="4">
         <v>19</v>
       </c>
-      <c r="B97" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C97" s="4">
-        <v>46</v>
-      </c>
-      <c r="D97" s="4">
-        <v>42</v>
-      </c>
-      <c r="E97" s="4">
-        <v>28</v>
-      </c>
-      <c r="F97" s="4">
-        <v>132</v>
-      </c>
-      <c r="G97" s="4">
-        <v>92</v>
-      </c>
-      <c r="H97" s="4">
-        <v>30</v>
-      </c>
-      <c r="I97" s="4">
-        <v>80</v>
-      </c>
-      <c r="J97" s="4">
-        <v>56</v>
-      </c>
-      <c r="K97" s="4">
-        <v>46</v>
-      </c>
-      <c r="L97" s="4">
-        <v>92</v>
-      </c>
-      <c r="M97" s="4">
-        <v>26</v>
-      </c>
-      <c r="N97" s="4">
-        <v>42</v>
-      </c>
-      <c r="O97" s="4">
-        <v>26</v>
-      </c>
       <c r="P97" s="4">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q97" s="4">
-        <v>414</v>
+        <v>270</v>
       </c>
       <c r="R97" s="4" t="str">
         <f>SUM(C97:Q97)</f>
@@ -5550,55 +5561,55 @@
     </row>
     <row r="98" spans="1:19">
       <c r="A98" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C98" s="4">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="D98" s="4">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="E98" s="4">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="F98" s="4">
-        <v>354</v>
+        <v>132</v>
       </c>
       <c r="G98" s="4">
-        <v>236</v>
+        <v>92</v>
       </c>
       <c r="H98" s="4">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="I98" s="4">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="J98" s="4">
-        <v>212</v>
+        <v>56</v>
       </c>
       <c r="K98" s="4">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="L98" s="4">
-        <v>240</v>
+        <v>92</v>
       </c>
       <c r="M98" s="4">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="N98" s="4">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="O98" s="4">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="P98" s="4">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="Q98" s="4">
-        <v>1080</v>
+        <v>414</v>
       </c>
       <c r="R98" s="4" t="str">
         <f>SUM(C98:Q98)</f>
@@ -5607,52 +5618,52 @@
     </row>
     <row r="99" spans="1:19">
       <c r="A99" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C99" s="4">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D99" s="4">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="E99" s="4">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="F99" s="4">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G99" s="4">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="H99" s="4">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="I99" s="4">
         <v>240</v>
       </c>
       <c r="J99" s="4">
-        <v>154</v>
+        <v>212</v>
       </c>
       <c r="K99" s="4">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="L99" s="4">
         <v>240</v>
       </c>
       <c r="M99" s="4">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="N99" s="4">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="O99" s="4">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="P99" s="4">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="Q99" s="4">
         <v>1080</v>
@@ -5664,55 +5675,55 @@
     </row>
     <row r="100" spans="1:19">
       <c r="A100" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C100" s="4">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="D100" s="4">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="E100" s="4">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="F100" s="4">
-        <v>167</v>
+        <v>352</v>
       </c>
       <c r="G100" s="4">
-        <v>108</v>
+        <v>226</v>
       </c>
       <c r="H100" s="4">
+        <v>87</v>
+      </c>
+      <c r="I100" s="4">
+        <v>240</v>
+      </c>
+      <c r="J100" s="4">
+        <v>154</v>
+      </c>
+      <c r="K100" s="4">
+        <v>115</v>
+      </c>
+      <c r="L100" s="4">
+        <v>240</v>
+      </c>
+      <c r="M100" s="4">
+        <v>59</v>
+      </c>
+      <c r="N100" s="4">
+        <v>105</v>
+      </c>
+      <c r="O100" s="4">
         <v>54</v>
-      </c>
-      <c r="I100" s="4">
-        <v>136</v>
-      </c>
-      <c r="J100" s="4">
-        <v>96</v>
-      </c>
-      <c r="K100" s="4">
-        <v>53</v>
-      </c>
-      <c r="L100" s="4">
-        <v>141</v>
-      </c>
-      <c r="M100" s="4">
-        <v>33</v>
-      </c>
-      <c r="N100" s="4">
-        <v>48</v>
-      </c>
-      <c r="O100" s="4">
-        <v>50</v>
       </c>
       <c r="P100" s="4">
         <v>54</v>
       </c>
       <c r="Q100" s="4">
-        <v>648</v>
+        <v>1080</v>
       </c>
       <c r="R100" s="4" t="str">
         <f>SUM(C100:Q100)</f>
@@ -5721,55 +5732,55 @@
     </row>
     <row r="101" spans="1:19">
       <c r="A101" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C101" s="4">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D101" s="4">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E101" s="4">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F101" s="4">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="G101" s="4">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="H101" s="4">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="I101" s="4">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="J101" s="4">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="K101" s="4">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="L101" s="4">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="M101" s="4">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N101" s="4">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="O101" s="4">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="P101" s="4">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="Q101" s="4">
-        <v>342</v>
+        <v>648</v>
       </c>
       <c r="R101" s="4" t="str">
         <f>SUM(C101:Q101)</f>
@@ -5777,261 +5788,261 @@
       </c>
     </row>
     <row r="102" spans="1:19">
-      <c r="A102" s="5" t="s">
+      <c r="A102" s="2">
+        <v>23</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C102" s="4">
+        <v>38</v>
+      </c>
+      <c r="D102" s="4">
+        <v>38</v>
+      </c>
+      <c r="E102" s="4">
+        <v>32</v>
+      </c>
+      <c r="F102" s="4">
+        <v>114</v>
+      </c>
+      <c r="G102" s="4">
+        <v>76</v>
+      </c>
+      <c r="H102" s="4">
+        <v>34</v>
+      </c>
+      <c r="I102" s="4">
+        <v>76</v>
+      </c>
+      <c r="J102" s="4">
+        <v>76</v>
+      </c>
+      <c r="K102" s="4">
+        <v>38</v>
+      </c>
+      <c r="L102" s="4">
+        <v>76</v>
+      </c>
+      <c r="M102" s="4">
+        <v>34</v>
+      </c>
+      <c r="N102" s="4">
+        <v>38</v>
+      </c>
+      <c r="O102" s="4">
+        <v>36</v>
+      </c>
+      <c r="P102" s="4">
+        <v>38</v>
+      </c>
+      <c r="Q102" s="4">
+        <v>342</v>
+      </c>
+      <c r="R102" s="4" t="str">
+        <f>SUM(C102:Q102)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19">
+      <c r="A103" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B102" s="1"/>
-      <c r="C102" s="6" t="str">
-        <f>SUM(C79:C101)</f>
-        <v>0</v>
-      </c>
-      <c r="D102" s="6" t="str">
-        <f>SUM(D79:D101)</f>
-        <v>0</v>
-      </c>
-      <c r="E102" s="6" t="str">
-        <f>SUM(E79:E101)</f>
-        <v>0</v>
-      </c>
-      <c r="F102" s="6" t="str">
-        <f>SUM(F79:F101)</f>
-        <v>0</v>
-      </c>
-      <c r="G102" s="6" t="str">
-        <f>SUM(G79:G101)</f>
-        <v>0</v>
-      </c>
-      <c r="H102" s="6" t="str">
-        <f>SUM(H79:H101)</f>
-        <v>0</v>
-      </c>
-      <c r="I102" s="6" t="str">
-        <f>SUM(I79:I101)</f>
-        <v>0</v>
-      </c>
-      <c r="J102" s="6" t="str">
-        <f>SUM(J79:J101)</f>
-        <v>0</v>
-      </c>
-      <c r="K102" s="6" t="str">
-        <f>SUM(K79:K101)</f>
-        <v>0</v>
-      </c>
-      <c r="L102" s="6" t="str">
-        <f>SUM(L79:L101)</f>
-        <v>0</v>
-      </c>
-      <c r="M102" s="6" t="str">
-        <f>SUM(M79:M101)</f>
-        <v>0</v>
-      </c>
-      <c r="N102" s="6" t="str">
-        <f>SUM(N79:N101)</f>
-        <v>0</v>
-      </c>
-      <c r="O102" s="6" t="str">
-        <f>SUM(O79:O101)</f>
-        <v>0</v>
-      </c>
-      <c r="P102" s="6" t="str">
-        <f>SUM(P79:P101)</f>
-        <v>0</v>
-      </c>
-      <c r="Q102" s="6" t="str">
-        <f>SUM(Q79:Q101)</f>
-        <v>0</v>
-      </c>
-      <c r="R102" s="6" t="str">
-        <f>SUM(R79:R101)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:19">
-      <c r="A104" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
-      <c r="J104" s="2"/>
-      <c r="K104" s="2"/>
-      <c r="L104" s="2"/>
-      <c r="M104" s="2"/>
-      <c r="N104" s="2"/>
-      <c r="O104" s="2"/>
-      <c r="P104" s="2"/>
-      <c r="Q104" s="2"/>
-      <c r="R104" s="2"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="6" t="str">
+        <f>SUM(C80:C102)</f>
+        <v>0</v>
+      </c>
+      <c r="D103" s="6" t="str">
+        <f>SUM(D80:D102)</f>
+        <v>0</v>
+      </c>
+      <c r="E103" s="6" t="str">
+        <f>SUM(E80:E102)</f>
+        <v>0</v>
+      </c>
+      <c r="F103" s="6" t="str">
+        <f>SUM(F80:F102)</f>
+        <v>0</v>
+      </c>
+      <c r="G103" s="6" t="str">
+        <f>SUM(G80:G102)</f>
+        <v>0</v>
+      </c>
+      <c r="H103" s="6" t="str">
+        <f>SUM(H80:H102)</f>
+        <v>0</v>
+      </c>
+      <c r="I103" s="6" t="str">
+        <f>SUM(I80:I102)</f>
+        <v>0</v>
+      </c>
+      <c r="J103" s="6" t="str">
+        <f>SUM(J80:J102)</f>
+        <v>0</v>
+      </c>
+      <c r="K103" s="6" t="str">
+        <f>SUM(K80:K102)</f>
+        <v>0</v>
+      </c>
+      <c r="L103" s="6" t="str">
+        <f>SUM(L80:L102)</f>
+        <v>0</v>
+      </c>
+      <c r="M103" s="6" t="str">
+        <f>SUM(M80:M102)</f>
+        <v>0</v>
+      </c>
+      <c r="N103" s="6" t="str">
+        <f>SUM(N80:N102)</f>
+        <v>0</v>
+      </c>
+      <c r="O103" s="6" t="str">
+        <f>SUM(O80:O102)</f>
+        <v>0</v>
+      </c>
+      <c r="P103" s="6" t="str">
+        <f>SUM(P80:P102)</f>
+        <v>0</v>
+      </c>
+      <c r="Q103" s="6" t="str">
+        <f>SUM(Q80:Q102)</f>
+        <v>0</v>
+      </c>
+      <c r="R103" s="6" t="str">
+        <f>SUM(R80:R102)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="1:19">
       <c r="A105" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B105" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
+      <c r="O105" s="2"/>
+      <c r="P105" s="2"/>
+      <c r="Q105" s="2"/>
+      <c r="R105" s="2"/>
+    </row>
+    <row r="106" spans="1:19">
+      <c r="A106" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C105" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D105" s="3" t="s">
+      <c r="C106" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D106" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E105" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F105" s="3" t="s">
+      <c r="E106" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F106" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G105" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H105" s="3" t="s">
+      <c r="G106" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H106" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I105" s="3" t="s">
+      <c r="I106" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J105" s="3" t="s">
+      <c r="J106" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K105" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L105" s="3" t="s">
+      <c r="K106" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L106" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M105" s="3" t="s">
+      <c r="M106" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N105" s="3" t="s">
+      <c r="N106" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O105" s="3" t="s">
+      <c r="O106" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P105" s="3" t="s">
+      <c r="P106" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q105" s="3" t="s">
+      <c r="Q106" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="R105" s="2" t="s">
+      <c r="R106" s="2" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="106" spans="1:19">
-      <c r="A106" s="2">
-        <v>1</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C106" s="4">
-        <v>10</v>
-      </c>
-      <c r="D106" s="4">
-        <v>10</v>
-      </c>
-      <c r="E106" s="4">
-        <v>6</v>
-      </c>
-      <c r="F106" s="4">
-        <v>24</v>
-      </c>
-      <c r="G106" s="4">
-        <v>20</v>
-      </c>
-      <c r="H106" s="4">
-        <v>8</v>
-      </c>
-      <c r="I106" s="4">
-        <v>20</v>
-      </c>
-      <c r="J106" s="4">
-        <v>20</v>
-      </c>
-      <c r="K106" s="4">
-        <v>8</v>
-      </c>
-      <c r="L106" s="4">
-        <v>20</v>
-      </c>
-      <c r="M106" s="4">
-        <v>6</v>
-      </c>
-      <c r="N106" s="4">
-        <v>10</v>
-      </c>
-      <c r="O106" s="4">
-        <v>6</v>
-      </c>
-      <c r="P106" s="4">
-        <v>8</v>
-      </c>
-      <c r="Q106" s="4">
-        <v>90</v>
-      </c>
-      <c r="R106" s="4" t="str">
-        <f>SUM(C106:Q106)</f>
-        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:19">
       <c r="A107" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B107" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C107" s="4">
+        <v>10</v>
+      </c>
+      <c r="D107" s="4">
+        <v>10</v>
+      </c>
+      <c r="E107" s="4">
+        <v>6</v>
+      </c>
+      <c r="F107" s="4">
+        <v>24</v>
+      </c>
+      <c r="G107" s="4">
+        <v>20</v>
+      </c>
+      <c r="H107" s="4">
+        <v>8</v>
+      </c>
+      <c r="I107" s="4">
+        <v>20</v>
+      </c>
+      <c r="J107" s="4">
+        <v>20</v>
+      </c>
+      <c r="K107" s="4">
+        <v>8</v>
+      </c>
+      <c r="L107" s="4">
+        <v>20</v>
+      </c>
+      <c r="M107" s="4">
+        <v>6</v>
+      </c>
+      <c r="N107" s="4">
+        <v>10</v>
+      </c>
+      <c r="O107" s="4">
+        <v>6</v>
+      </c>
+      <c r="P107" s="4">
+        <v>8</v>
+      </c>
+      <c r="Q107" s="4">
         <v>90</v>
-      </c>
-      <c r="C107" s="4">
-        <v>4</v>
-      </c>
-      <c r="D107" s="4">
-        <v>4</v>
-      </c>
-      <c r="E107" s="4">
-        <v>3</v>
-      </c>
-      <c r="F107" s="4">
-        <v>12</v>
-      </c>
-      <c r="G107" s="4">
-        <v>7</v>
-      </c>
-      <c r="H107" s="4">
-        <v>3</v>
-      </c>
-      <c r="I107" s="4">
-        <v>8</v>
-      </c>
-      <c r="J107" s="4">
-        <v>8</v>
-      </c>
-      <c r="K107" s="4">
-        <v>4</v>
-      </c>
-      <c r="L107" s="4">
-        <v>6</v>
-      </c>
-      <c r="M107" s="4">
-        <v>3</v>
-      </c>
-      <c r="N107" s="4">
-        <v>3</v>
-      </c>
-      <c r="O107" s="4">
-        <v>2</v>
-      </c>
-      <c r="P107" s="4">
-        <v>4</v>
-      </c>
-      <c r="Q107" s="4">
-        <v>36</v>
       </c>
       <c r="R107" s="4" t="str">
         <f>SUM(C107:Q107)</f>
@@ -6040,55 +6051,55 @@
     </row>
     <row r="108" spans="1:19">
       <c r="A108" s="2">
+        <v>2</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C108" s="4">
+        <v>4</v>
+      </c>
+      <c r="D108" s="4">
+        <v>4</v>
+      </c>
+      <c r="E108" s="4">
         <v>3</v>
       </c>
-      <c r="B108" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C108" s="4">
-        <v>2</v>
-      </c>
-      <c r="D108" s="4">
-        <v>2</v>
-      </c>
-      <c r="E108" s="4">
-        <v>0</v>
-      </c>
       <c r="F108" s="4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G108" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H108" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I108" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J108" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K108" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L108" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M108" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N108" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O108" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P108" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q108" s="4">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="R108" s="4" t="str">
         <f>SUM(C108:Q108)</f>
@@ -6097,55 +6108,55 @@
     </row>
     <row r="109" spans="1:19">
       <c r="A109" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C109" s="4">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="D109" s="4">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="E109" s="4">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="F109" s="4">
-        <v>210</v>
+        <v>6</v>
       </c>
       <c r="G109" s="4">
-        <v>140</v>
+        <v>4</v>
       </c>
       <c r="H109" s="4">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="I109" s="4">
-        <v>144</v>
+        <v>4</v>
       </c>
       <c r="J109" s="4">
-        <v>140</v>
+        <v>4</v>
       </c>
       <c r="K109" s="4">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="L109" s="4">
-        <v>142</v>
+        <v>4</v>
       </c>
       <c r="M109" s="4">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="N109" s="4">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="O109" s="4">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="P109" s="4">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="Q109" s="4">
-        <v>648</v>
+        <v>18</v>
       </c>
       <c r="R109" s="4" t="str">
         <f>SUM(C109:Q109)</f>
@@ -6154,55 +6165,55 @@
     </row>
     <row r="110" spans="1:19">
       <c r="A110" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C110" s="4">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D110" s="4">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="E110" s="4">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F110" s="4">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="G110" s="4">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="H110" s="4">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I110" s="4">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="J110" s="4">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="K110" s="4">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="L110" s="4">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="M110" s="4">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="N110" s="4">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="O110" s="4">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="P110" s="4">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="Q110" s="4">
-        <v>342</v>
+        <v>648</v>
       </c>
       <c r="R110" s="4" t="str">
         <f>SUM(C110:Q110)</f>
@@ -6211,55 +6222,55 @@
     </row>
     <row r="111" spans="1:19">
       <c r="A111" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C111" s="4">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D111" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E111" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F111" s="4">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="G111" s="4">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="H111" s="4">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="I111" s="4">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="J111" s="4">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="K111" s="4">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="L111" s="4">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="M111" s="4">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="N111" s="4">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="O111" s="4">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="P111" s="4">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="Q111" s="4">
-        <v>54</v>
+        <v>342</v>
       </c>
       <c r="R111" s="4" t="str">
         <f>SUM(C111:Q111)</f>
@@ -6268,55 +6279,55 @@
     </row>
     <row r="112" spans="1:19">
       <c r="A112" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C112" s="4">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D112" s="4">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E112" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F112" s="4">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G112" s="4">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="H112" s="4">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I112" s="4">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="J112" s="4">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="K112" s="4">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L112" s="4">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="M112" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N112" s="4">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="O112" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P112" s="4">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Q112" s="4">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="R112" s="4" t="str">
         <f>SUM(C112:Q112)</f>
@@ -6325,55 +6336,55 @@
     </row>
     <row r="113" spans="1:19">
       <c r="A113" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C113" s="4">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D113" s="4">
+        <v>12</v>
+      </c>
+      <c r="E113" s="4">
+        <v>7</v>
+      </c>
+      <c r="F113" s="4">
+        <v>42</v>
+      </c>
+      <c r="G113" s="4">
+        <v>28</v>
+      </c>
+      <c r="H113" s="4">
+        <v>9</v>
+      </c>
+      <c r="I113" s="4">
+        <v>28</v>
+      </c>
+      <c r="J113" s="4">
+        <v>24</v>
+      </c>
+      <c r="K113" s="4">
+        <v>12</v>
+      </c>
+      <c r="L113" s="4">
+        <v>28</v>
+      </c>
+      <c r="M113" s="4">
+        <v>9</v>
+      </c>
+      <c r="N113" s="4">
+        <v>12</v>
+      </c>
+      <c r="O113" s="4">
+        <v>8</v>
+      </c>
+      <c r="P113" s="4">
         <v>10</v>
       </c>
-      <c r="E113" s="4">
-        <v>6</v>
-      </c>
-      <c r="F113" s="4">
-        <v>30</v>
-      </c>
-      <c r="G113" s="4">
-        <v>20</v>
-      </c>
-      <c r="H113" s="4">
-        <v>8</v>
-      </c>
-      <c r="I113" s="4">
-        <v>20</v>
-      </c>
-      <c r="J113" s="4">
-        <v>20</v>
-      </c>
-      <c r="K113" s="4">
-        <v>10</v>
-      </c>
-      <c r="L113" s="4">
-        <v>20</v>
-      </c>
-      <c r="M113" s="4">
-        <v>6</v>
-      </c>
-      <c r="N113" s="4">
-        <v>10</v>
-      </c>
-      <c r="O113" s="4">
-        <v>7</v>
-      </c>
-      <c r="P113" s="4">
-        <v>8</v>
-      </c>
       <c r="Q113" s="4">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="R113" s="4" t="str">
         <f>SUM(C113:Q113)</f>
@@ -6382,55 +6393,55 @@
     </row>
     <row r="114" spans="1:19">
       <c r="A114" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C114" s="4">
         <v>8</v>
       </c>
       <c r="D114" s="4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E114" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F114" s="4">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G114" s="4">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H114" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I114" s="4">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J114" s="4">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="K114" s="4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L114" s="4">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M114" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N114" s="4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O114" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P114" s="4">
         <v>8</v>
       </c>
       <c r="Q114" s="4">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="R114" s="4" t="str">
         <f>SUM(C114:Q114)</f>
@@ -6439,55 +6450,55 @@
     </row>
     <row r="115" spans="1:19">
       <c r="A115" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C115" s="4">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D115" s="4">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E115" s="4">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F115" s="4">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="G115" s="4">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="H115" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I115" s="4">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="J115" s="4">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="K115" s="4">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="L115" s="4">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="M115" s="4">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="N115" s="4">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="O115" s="4">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="P115" s="4">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="Q115" s="4">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="R115" s="4" t="str">
         <f>SUM(C115:Q115)</f>
@@ -6496,55 +6507,55 @@
     </row>
     <row r="116" spans="1:19">
       <c r="A116" s="2">
+        <v>10</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C116" s="4">
+        <v>14</v>
+      </c>
+      <c r="D116" s="4">
+        <v>14</v>
+      </c>
+      <c r="E116" s="4">
+        <v>9</v>
+      </c>
+      <c r="F116" s="4">
+        <v>42</v>
+      </c>
+      <c r="G116" s="4">
+        <v>28</v>
+      </c>
+      <c r="H116" s="4">
+        <v>10</v>
+      </c>
+      <c r="I116" s="4">
+        <v>28</v>
+      </c>
+      <c r="J116" s="4">
+        <v>28</v>
+      </c>
+      <c r="K116" s="4">
+        <v>14</v>
+      </c>
+      <c r="L116" s="4">
+        <v>28</v>
+      </c>
+      <c r="M116" s="4">
         <v>11</v>
       </c>
-      <c r="B116" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C116" s="4">
-        <v>4</v>
-      </c>
-      <c r="D116" s="4">
-        <v>4</v>
-      </c>
-      <c r="E116" s="4">
-        <v>2</v>
-      </c>
-      <c r="F116" s="4">
-        <v>12</v>
-      </c>
-      <c r="G116" s="4">
-        <v>8</v>
-      </c>
-      <c r="H116" s="4">
-        <v>2</v>
-      </c>
-      <c r="I116" s="4">
-        <v>12</v>
-      </c>
-      <c r="J116" s="4">
-        <v>6</v>
-      </c>
-      <c r="K116" s="4">
-        <v>4</v>
-      </c>
-      <c r="L116" s="4">
-        <v>12</v>
-      </c>
-      <c r="M116" s="4">
-        <v>2</v>
-      </c>
       <c r="N116" s="4">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="O116" s="4">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="P116" s="4">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="Q116" s="4">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="R116" s="4" t="str">
         <f>SUM(C116:Q116)</f>
@@ -6553,55 +6564,55 @@
     </row>
     <row r="117" spans="1:19">
       <c r="A117" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C117" s="4">
+        <v>4</v>
+      </c>
+      <c r="D117" s="4">
+        <v>4</v>
+      </c>
+      <c r="E117" s="4">
+        <v>2</v>
+      </c>
+      <c r="F117" s="4">
+        <v>12</v>
+      </c>
+      <c r="G117" s="4">
+        <v>8</v>
+      </c>
+      <c r="H117" s="4">
+        <v>2</v>
+      </c>
+      <c r="I117" s="4">
+        <v>12</v>
+      </c>
+      <c r="J117" s="4">
+        <v>6</v>
+      </c>
+      <c r="K117" s="4">
+        <v>4</v>
+      </c>
+      <c r="L117" s="4">
+        <v>12</v>
+      </c>
+      <c r="M117" s="4">
+        <v>2</v>
+      </c>
+      <c r="N117" s="4">
+        <v>4</v>
+      </c>
+      <c r="O117" s="4">
+        <v>3</v>
+      </c>
+      <c r="P117" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q117" s="4">
         <v>54</v>
-      </c>
-      <c r="D117" s="4">
-        <v>56</v>
-      </c>
-      <c r="E117" s="4">
-        <v>30</v>
-      </c>
-      <c r="F117" s="4">
-        <v>168</v>
-      </c>
-      <c r="G117" s="4">
-        <v>110</v>
-      </c>
-      <c r="H117" s="4">
-        <v>45</v>
-      </c>
-      <c r="I117" s="4">
-        <v>116</v>
-      </c>
-      <c r="J117" s="4">
-        <v>87</v>
-      </c>
-      <c r="K117" s="4">
-        <v>52</v>
-      </c>
-      <c r="L117" s="4">
-        <v>109</v>
-      </c>
-      <c r="M117" s="4">
-        <v>37</v>
-      </c>
-      <c r="N117" s="4">
-        <v>50</v>
-      </c>
-      <c r="O117" s="4">
-        <v>34</v>
-      </c>
-      <c r="P117" s="4">
-        <v>41</v>
-      </c>
-      <c r="Q117" s="4">
-        <v>522</v>
       </c>
       <c r="R117" s="4" t="str">
         <f>SUM(C117:Q117)</f>
@@ -6610,55 +6621,55 @@
     </row>
     <row r="118" spans="1:19">
       <c r="A118" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C118" s="4">
-        <v>144</v>
+        <v>54</v>
       </c>
       <c r="D118" s="4">
-        <v>144</v>
+        <v>56</v>
       </c>
       <c r="E118" s="4">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F118" s="4">
-        <v>450</v>
+        <v>168</v>
       </c>
       <c r="G118" s="4">
-        <v>290</v>
+        <v>110</v>
       </c>
       <c r="H118" s="4">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="I118" s="4">
-        <v>304</v>
+        <v>116</v>
       </c>
       <c r="J118" s="4">
-        <v>256</v>
+        <v>87</v>
       </c>
       <c r="K118" s="4">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="L118" s="4">
-        <v>281</v>
+        <v>109</v>
       </c>
       <c r="M118" s="4">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="N118" s="4">
-        <v>136</v>
+        <v>50</v>
       </c>
       <c r="O118" s="4">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="P118" s="4">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="Q118" s="4">
-        <v>1386</v>
+        <v>522</v>
       </c>
       <c r="R118" s="4" t="str">
         <f>SUM(C118:Q118)</f>
@@ -6666,261 +6677,261 @@
       </c>
     </row>
     <row r="119" spans="1:19">
-      <c r="A119" s="5" t="s">
+      <c r="A119" s="2">
+        <v>13</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C119" s="4">
+        <v>144</v>
+      </c>
+      <c r="D119" s="4">
+        <v>144</v>
+      </c>
+      <c r="E119" s="4">
+        <v>54</v>
+      </c>
+      <c r="F119" s="4">
+        <v>450</v>
+      </c>
+      <c r="G119" s="4">
+        <v>290</v>
+      </c>
+      <c r="H119" s="4">
+        <v>101</v>
+      </c>
+      <c r="I119" s="4">
+        <v>304</v>
+      </c>
+      <c r="J119" s="4">
+        <v>256</v>
+      </c>
+      <c r="K119" s="4">
+        <v>127</v>
+      </c>
+      <c r="L119" s="4">
+        <v>281</v>
+      </c>
+      <c r="M119" s="4">
+        <v>74</v>
+      </c>
+      <c r="N119" s="4">
+        <v>136</v>
+      </c>
+      <c r="O119" s="4">
+        <v>113</v>
+      </c>
+      <c r="P119" s="4">
+        <v>107</v>
+      </c>
+      <c r="Q119" s="4">
+        <v>1386</v>
+      </c>
+      <c r="R119" s="4" t="str">
+        <f>SUM(C119:Q119)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19">
+      <c r="A120" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B119" s="1"/>
-      <c r="C119" s="6" t="str">
-        <f>SUM(C106:C118)</f>
-        <v>0</v>
-      </c>
-      <c r="D119" s="6" t="str">
-        <f>SUM(D106:D118)</f>
-        <v>0</v>
-      </c>
-      <c r="E119" s="6" t="str">
-        <f>SUM(E106:E118)</f>
-        <v>0</v>
-      </c>
-      <c r="F119" s="6" t="str">
-        <f>SUM(F106:F118)</f>
-        <v>0</v>
-      </c>
-      <c r="G119" s="6" t="str">
-        <f>SUM(G106:G118)</f>
-        <v>0</v>
-      </c>
-      <c r="H119" s="6" t="str">
-        <f>SUM(H106:H118)</f>
-        <v>0</v>
-      </c>
-      <c r="I119" s="6" t="str">
-        <f>SUM(I106:I118)</f>
-        <v>0</v>
-      </c>
-      <c r="J119" s="6" t="str">
-        <f>SUM(J106:J118)</f>
-        <v>0</v>
-      </c>
-      <c r="K119" s="6" t="str">
-        <f>SUM(K106:K118)</f>
-        <v>0</v>
-      </c>
-      <c r="L119" s="6" t="str">
-        <f>SUM(L106:L118)</f>
-        <v>0</v>
-      </c>
-      <c r="M119" s="6" t="str">
-        <f>SUM(M106:M118)</f>
-        <v>0</v>
-      </c>
-      <c r="N119" s="6" t="str">
-        <f>SUM(N106:N118)</f>
-        <v>0</v>
-      </c>
-      <c r="O119" s="6" t="str">
-        <f>SUM(O106:O118)</f>
-        <v>0</v>
-      </c>
-      <c r="P119" s="6" t="str">
-        <f>SUM(P106:P118)</f>
-        <v>0</v>
-      </c>
-      <c r="Q119" s="6" t="str">
-        <f>SUM(Q106:Q118)</f>
-        <v>0</v>
-      </c>
-      <c r="R119" s="6" t="str">
-        <f>SUM(R106:R118)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:19">
-      <c r="A121" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
-      <c r="F121" s="2"/>
-      <c r="G121" s="2"/>
-      <c r="H121" s="2"/>
-      <c r="I121" s="2"/>
-      <c r="J121" s="2"/>
-      <c r="K121" s="2"/>
-      <c r="L121" s="2"/>
-      <c r="M121" s="2"/>
-      <c r="N121" s="2"/>
-      <c r="O121" s="2"/>
-      <c r="P121" s="2"/>
-      <c r="Q121" s="2"/>
-      <c r="R121" s="2"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="6" t="str">
+        <f>SUM(C107:C119)</f>
+        <v>0</v>
+      </c>
+      <c r="D120" s="6" t="str">
+        <f>SUM(D107:D119)</f>
+        <v>0</v>
+      </c>
+      <c r="E120" s="6" t="str">
+        <f>SUM(E107:E119)</f>
+        <v>0</v>
+      </c>
+      <c r="F120" s="6" t="str">
+        <f>SUM(F107:F119)</f>
+        <v>0</v>
+      </c>
+      <c r="G120" s="6" t="str">
+        <f>SUM(G107:G119)</f>
+        <v>0</v>
+      </c>
+      <c r="H120" s="6" t="str">
+        <f>SUM(H107:H119)</f>
+        <v>0</v>
+      </c>
+      <c r="I120" s="6" t="str">
+        <f>SUM(I107:I119)</f>
+        <v>0</v>
+      </c>
+      <c r="J120" s="6" t="str">
+        <f>SUM(J107:J119)</f>
+        <v>0</v>
+      </c>
+      <c r="K120" s="6" t="str">
+        <f>SUM(K107:K119)</f>
+        <v>0</v>
+      </c>
+      <c r="L120" s="6" t="str">
+        <f>SUM(L107:L119)</f>
+        <v>0</v>
+      </c>
+      <c r="M120" s="6" t="str">
+        <f>SUM(M107:M119)</f>
+        <v>0</v>
+      </c>
+      <c r="N120" s="6" t="str">
+        <f>SUM(N107:N119)</f>
+        <v>0</v>
+      </c>
+      <c r="O120" s="6" t="str">
+        <f>SUM(O107:O119)</f>
+        <v>0</v>
+      </c>
+      <c r="P120" s="6" t="str">
+        <f>SUM(P107:P119)</f>
+        <v>0</v>
+      </c>
+      <c r="Q120" s="6" t="str">
+        <f>SUM(Q107:Q119)</f>
+        <v>0</v>
+      </c>
+      <c r="R120" s="6" t="str">
+        <f>SUM(R107:R119)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="122" spans="1:19">
       <c r="A122" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B122" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
+      <c r="J122" s="2"/>
+      <c r="K122" s="2"/>
+      <c r="L122" s="2"/>
+      <c r="M122" s="2"/>
+      <c r="N122" s="2"/>
+      <c r="O122" s="2"/>
+      <c r="P122" s="2"/>
+      <c r="Q122" s="2"/>
+      <c r="R122" s="2"/>
+    </row>
+    <row r="123" spans="1:19">
+      <c r="A123" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C122" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D122" s="3" t="s">
+      <c r="C123" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D123" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E122" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F122" s="3" t="s">
+      <c r="E123" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F123" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G122" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H122" s="3" t="s">
+      <c r="G123" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H123" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I122" s="3" t="s">
+      <c r="I123" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J122" s="3" t="s">
+      <c r="J123" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K122" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L122" s="3" t="s">
+      <c r="K123" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L123" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M122" s="3" t="s">
+      <c r="M123" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N122" s="3" t="s">
+      <c r="N123" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O122" s="3" t="s">
+      <c r="O123" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P122" s="3" t="s">
+      <c r="P123" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q122" s="3" t="s">
+      <c r="Q123" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="R122" s="2" t="s">
+      <c r="R123" s="2" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="123" spans="1:19">
-      <c r="A123" s="2">
-        <v>1</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C123" s="4">
-        <v>14</v>
-      </c>
-      <c r="D123" s="4">
-        <v>12</v>
-      </c>
-      <c r="E123" s="4">
-        <v>2</v>
-      </c>
-      <c r="F123" s="4">
-        <v>42</v>
-      </c>
-      <c r="G123" s="4">
-        <v>28</v>
-      </c>
-      <c r="H123" s="4">
-        <v>12</v>
-      </c>
-      <c r="I123" s="4">
-        <v>28</v>
-      </c>
-      <c r="J123" s="4">
-        <v>20</v>
-      </c>
-      <c r="K123" s="4">
-        <v>14</v>
-      </c>
-      <c r="L123" s="4">
-        <v>28</v>
-      </c>
-      <c r="M123" s="4">
-        <v>2</v>
-      </c>
-      <c r="N123" s="4">
-        <v>12</v>
-      </c>
-      <c r="O123" s="4">
-        <v>2</v>
-      </c>
-      <c r="P123" s="4">
-        <v>2</v>
-      </c>
-      <c r="Q123" s="4">
-        <v>126</v>
-      </c>
-      <c r="R123" s="4" t="str">
-        <f>SUM(C123:Q123)</f>
-        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:19">
       <c r="A124" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C124" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D124" s="4">
         <v>12</v>
       </c>
       <c r="E124" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F124" s="4">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G124" s="4">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H124" s="4">
         <v>12</v>
       </c>
       <c r="I124" s="4">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J124" s="4">
         <v>20</v>
       </c>
       <c r="K124" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L124" s="4">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M124" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N124" s="4">
         <v>12</v>
       </c>
       <c r="O124" s="4">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="P124" s="4">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="Q124" s="4">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="R124" s="4" t="str">
         <f>SUM(C124:Q124)</f>
@@ -6928,95 +6939,152 @@
       </c>
     </row>
     <row r="125" spans="1:19">
-      <c r="A125" s="5" t="s">
+      <c r="A125" s="2">
+        <v>2</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C125" s="4">
+        <v>12</v>
+      </c>
+      <c r="D125" s="4">
+        <v>12</v>
+      </c>
+      <c r="E125" s="4">
+        <v>10</v>
+      </c>
+      <c r="F125" s="4">
+        <v>36</v>
+      </c>
+      <c r="G125" s="4">
+        <v>24</v>
+      </c>
+      <c r="H125" s="4">
+        <v>12</v>
+      </c>
+      <c r="I125" s="4">
+        <v>24</v>
+      </c>
+      <c r="J125" s="4">
+        <v>20</v>
+      </c>
+      <c r="K125" s="4">
+        <v>12</v>
+      </c>
+      <c r="L125" s="4">
+        <v>24</v>
+      </c>
+      <c r="M125" s="4">
+        <v>10</v>
+      </c>
+      <c r="N125" s="4">
+        <v>12</v>
+      </c>
+      <c r="O125" s="4">
+        <v>12</v>
+      </c>
+      <c r="P125" s="4">
+        <v>12</v>
+      </c>
+      <c r="Q125" s="4">
+        <v>108</v>
+      </c>
+      <c r="R125" s="4" t="str">
+        <f>SUM(C125:Q125)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19">
+      <c r="A126" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B125" s="1"/>
-      <c r="C125" s="6" t="str">
-        <f>SUM(C123:C124)</f>
-        <v>0</v>
-      </c>
-      <c r="D125" s="6" t="str">
-        <f>SUM(D123:D124)</f>
-        <v>0</v>
-      </c>
-      <c r="E125" s="6" t="str">
-        <f>SUM(E123:E124)</f>
-        <v>0</v>
-      </c>
-      <c r="F125" s="6" t="str">
-        <f>SUM(F123:F124)</f>
-        <v>0</v>
-      </c>
-      <c r="G125" s="6" t="str">
-        <f>SUM(G123:G124)</f>
-        <v>0</v>
-      </c>
-      <c r="H125" s="6" t="str">
-        <f>SUM(H123:H124)</f>
-        <v>0</v>
-      </c>
-      <c r="I125" s="6" t="str">
-        <f>SUM(I123:I124)</f>
-        <v>0</v>
-      </c>
-      <c r="J125" s="6" t="str">
-        <f>SUM(J123:J124)</f>
-        <v>0</v>
-      </c>
-      <c r="K125" s="6" t="str">
-        <f>SUM(K123:K124)</f>
-        <v>0</v>
-      </c>
-      <c r="L125" s="6" t="str">
-        <f>SUM(L123:L124)</f>
-        <v>0</v>
-      </c>
-      <c r="M125" s="6" t="str">
-        <f>SUM(M123:M124)</f>
-        <v>0</v>
-      </c>
-      <c r="N125" s="6" t="str">
-        <f>SUM(N123:N124)</f>
-        <v>0</v>
-      </c>
-      <c r="O125" s="6" t="str">
-        <f>SUM(O123:O124)</f>
-        <v>0</v>
-      </c>
-      <c r="P125" s="6" t="str">
-        <f>SUM(P123:P124)</f>
-        <v>0</v>
-      </c>
-      <c r="Q125" s="6" t="str">
-        <f>SUM(Q123:Q124)</f>
-        <v>0</v>
-      </c>
-      <c r="R125" s="6" t="str">
-        <f>SUM(R123:R124)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:19">
-      <c r="A128" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
-      <c r="H128" s="1"/>
-      <c r="I128" s="1"/>
-      <c r="J128" s="1"/>
-      <c r="K128" s="1"/>
-      <c r="L128" s="1"/>
-      <c r="M128" s="1"/>
-      <c r="N128" s="1"/>
-      <c r="O128" s="1"/>
-      <c r="P128" s="1"/>
-      <c r="Q128" s="1"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="6" t="str">
+        <f>SUM(C124:C125)</f>
+        <v>0</v>
+      </c>
+      <c r="D126" s="6" t="str">
+        <f>SUM(D124:D125)</f>
+        <v>0</v>
+      </c>
+      <c r="E126" s="6" t="str">
+        <f>SUM(E124:E125)</f>
+        <v>0</v>
+      </c>
+      <c r="F126" s="6" t="str">
+        <f>SUM(F124:F125)</f>
+        <v>0</v>
+      </c>
+      <c r="G126" s="6" t="str">
+        <f>SUM(G124:G125)</f>
+        <v>0</v>
+      </c>
+      <c r="H126" s="6" t="str">
+        <f>SUM(H124:H125)</f>
+        <v>0</v>
+      </c>
+      <c r="I126" s="6" t="str">
+        <f>SUM(I124:I125)</f>
+        <v>0</v>
+      </c>
+      <c r="J126" s="6" t="str">
+        <f>SUM(J124:J125)</f>
+        <v>0</v>
+      </c>
+      <c r="K126" s="6" t="str">
+        <f>SUM(K124:K125)</f>
+        <v>0</v>
+      </c>
+      <c r="L126" s="6" t="str">
+        <f>SUM(L124:L125)</f>
+        <v>0</v>
+      </c>
+      <c r="M126" s="6" t="str">
+        <f>SUM(M124:M125)</f>
+        <v>0</v>
+      </c>
+      <c r="N126" s="6" t="str">
+        <f>SUM(N124:N125)</f>
+        <v>0</v>
+      </c>
+      <c r="O126" s="6" t="str">
+        <f>SUM(O124:O125)</f>
+        <v>0</v>
+      </c>
+      <c r="P126" s="6" t="str">
+        <f>SUM(P124:P125)</f>
+        <v>0</v>
+      </c>
+      <c r="Q126" s="6" t="str">
+        <f>SUM(Q124:Q125)</f>
+        <v>0</v>
+      </c>
+      <c r="R126" s="6" t="str">
+        <f>SUM(R124:R125)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19">
+      <c r="A129" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
+      <c r="O129" s="1"/>
+      <c r="P129" s="1"/>
+      <c r="Q129" s="1"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -7030,17 +7098,17 @@
     <mergeCell ref="A58:R58"/>
     <mergeCell ref="A61:B61"/>
     <mergeCell ref="A63:R63"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A67:R67"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A77:R77"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A104:R104"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A121:R121"/>
-    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A68:R68"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A78:R78"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A105:R105"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A122:R122"/>
+    <mergeCell ref="A126:B126"/>
     <mergeCell ref="C3:Q5"/>
-    <mergeCell ref="A128:Q128"/>
+    <mergeCell ref="A129:Q129"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
